--- a/Data/Excel/Model/Auth/Session.xlsx
+++ b/Data/Excel/Model/Auth/Session.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Model\Auth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A740D0-73A6-4243-A641-4B46319C39E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D47B9A-1A37-4F9C-A59F-EFF67687179A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="795" yWindow="825" windowWidth="12750" windowHeight="11295" xr2:uid="{B14C0FCD-ADAC-43B5-88EF-CD027C78C01B}"/>
   </bookViews>
@@ -98,10 +98,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>VARCHAR(30)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>ENUM:ESessionState</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -111,6 +107,10 @@
   </si>
   <si>
     <t>fk</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1047,8 +1047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCC6768-C9E8-4795-B55A-C1C942DE1B76}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="XES1" workbookViewId="0">
-      <selection activeCell="XFB3" sqref="XFB3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1083,7 +1083,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -1100,7 +1100,7 @@
         <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1127,7 +1127,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1135,7 +1135,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1143,7 +1143,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1151,7 +1151,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1159,7 +1159,7 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1167,7 +1167,7 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1175,7 +1175,7 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
